--- a/spreadsheet/sap_checklist.en.xlsx
+++ b/spreadsheet/sap_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Do not combine ASCS and Database cluster on to single/same VM</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Enforce Principle propogation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>Make sure the Floating IP is enabled on the Load balancer</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implement Single Sign on (SSO) using Azure Active Directory or Active Directory Federation Services (AD FS) for end users to con nect to SAP applications where possible.</t>
+          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>If SuccessFactor is used as HCM application leverage the automated user provisioning feature to Azure AD.</t>
+          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP Netweaver based web applications like Fiori, webgui etc. can be implemented using SAML</t>
+          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP GUI can be implemented using either SAP SSO or a 3rd party solution</t>
+          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS and SAP C4C with Azure AD can be implemented using SAML</t>
+          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>enfore closely closely coupled applications into the same SAP Subscription to avoid additional routing and management complexity</t>
+          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Suscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription).</t>
+          <t>Make quota requests for correct VM SKU and Zones</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>Enforce Principle propogation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implement Single Sign on (SSO) using Azure Active Directory or Active Directory Federation Services (AD FS) for end users to con nect to SAP applications where possible.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>If SuccessFactor is used as HCM application leverage the automated user provisioning feature to Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>SSO to SAP Netweaver based web applications like Fiori, webgui etc. can be implemented using SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>SSO to SAP GUI can be implemented using either SAP SSO or a 3rd party solution</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS and SAP C4C with Azure AD can be implemented using SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Ensure Accelarated Networking is enable for all VM where it is applicable.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Ensure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR) for HA configuration on the DBMS layer</t>
+          <t>enfore closely closely coupled applications into the same SAP Subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t xml:space="preserve">Leverage Suscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Web dispatcher or third party service like NetScaler in conjuction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files is used for SAP deployment , ensure that only one delegate subnet can exist in a Vnet for Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within SAP application layer, like App subnet, DB subnet and Web subnet etc.</t>
+          <t>Use SAP Solution Manager and Azure Monitor for SAP Solutions to monitor SAP HANA, high-availability SUSE clusters, and SQL systems</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine to access VM monitoring and configuration data.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Protect your HANA database with Azure Backup service. If you deploy Azure NetApp Files (ANF) for your HANA database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Solution Manager and Azure Monitor for SAP Solutions to monitor SAP HANA, high-availability SUSE clusters, and SQL systems</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine to access VM monitoring and configuration data.</t>
+          <t>Use Network Watcher Connection Monitor to monitor SAP database and application server latency metrics, or collect and display network latency measurements with Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Protect your HANA database with Azure Backup service. If you deploy Azure NetApp Files (ANF) for your HANA database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots</t>
+          <t>For each Azure subscription, run an Azure Availability Zone latency test before zonal deployment to choose low-latency zones for SAP on Azure deployment.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Implement threat protection for SAP with Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher Connection Monitor to monitor SAP database and application server latency metrics, or collect and display network latency measurements with Azure Monitor.</t>
+          <t>Enforcing configuration of update management through policy ensures all VMs are included in the patch management regimen, provides application teams with the ability to manage patch deployment for their VMs, and provides central IT with visibility and enforcement capabilities across all VMs</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>Enable VM Insights for VM's running SAP Workloads.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run an Azure Availability Zone latency test before zonal deployment to choose low-latency zones for SAP on Azure deployment.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implement threat protection for SAP with Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Enforcing configuration of update management through policy ensures all VMs are included in the patch management regimen, provides application teams with the ability to manage patch deployment for their VMs, and provides central IT with visibility and enforcement capabilities across all VMs</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Enable VM Insights for VM's running SAP Workloads.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
+          <t>Ensure Accelarated Networking is enable for all VM where it is applicable.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Use SAP Web dispatcher or third party service like NetScaler in conjuction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
+          <t>Ensure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR) for HA configuration on the DBMS layer</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
+          <t>If Azure NetApp Files is used for SAP deployment , ensure that only one delegate subnet can exist in a Vnet for Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within SAP application layer, like App subnet, DB subnet and Web subnet etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled by default</t>
+          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure Storage encryption is enabled by default</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>Do not combine ASCS and Database cluster on to single/same VM</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Make sure the Floating IP is enabled on the Load balancer</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
+          <t>Delegate an SAP admin custom role with just-in-time access.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
+          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
+          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,7 +4784,11 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlists</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAP </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,17 +4912,17 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Make quota requests for correct VM SKU and Zones</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -4878,13 +4937,21 @@
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/sap_checklist.en.xlsx
+++ b/spreadsheet/sap_checklist.en.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Do not combine ASCS and Database cluster on to single/same VM</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1120,17 +1120,17 @@
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Enforce Principle propogation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>Make sure the Floating IP is enabled on the Load balancer</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1166,17 +1166,17 @@
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Implement Single Sign on (SSO) using Azure Active Directory or Active Directory Federation Services (AD FS) for end users to con nect to SAP applications where possible.</t>
+          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>If SuccessFactor is used as HCM application leverage the automated user provisioning feature to Azure AD.</t>
+          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1260,19 +1260,15 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP Netweaver based web applications like Fiori, webgui etc. can be implemented using SAML</t>
+          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1310,19 +1306,15 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP GUI can be implemented using either SAP SSO or a 3rd party solution</t>
+          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1360,19 +1352,15 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS and SAP C4C with Azure AD can be implemented using SAML</t>
+          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1410,19 +1398,15 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1460,19 +1444,15 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1510,19 +1490,15 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1558,21 +1534,13 @@
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>enfore closely closely coupled applications into the same SAP Subscription to avoid additional routing and management complexity</t>
+          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1608,21 +1576,13 @@
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Suscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1658,21 +1618,13 @@
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription).</t>
+          <t>Make quota requests for correct VM SKU and Zones</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1708,21 +1660,13 @@
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,23 +1677,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,21 +1702,17 @@
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1808,17 +1748,17 @@
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,23 +1769,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Implement Single Sign on (SSO) using Azure Active Directory or Active Directory Federation Services (AD FS) for end users to con nect to SAP applications where possible.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,17 +1794,17 @@
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>If SuccessFactor is used as HCM application leverage the automated user provisioning feature to Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1902,15 +1842,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>SSO to SAP Netweaver based web applications like Fiori, webgui etc. can be implemented using SAML</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1948,19 +1892,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,23 +1915,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>SSO to SAP GUI can be implemented using either SAP SSO or a 3rd party solution</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1998,19 +1942,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, SAP Cloud Platform IAS and SAP C4C with Azure AD can be implemented using SAML</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2048,19 +1992,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Ensure Accelarated Networking is enable for all VM where it is applicable.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2098,19 +2042,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2148,19 +2092,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2198,19 +2142,19 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Ensure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR) for HA configuration on the DBMS layer</t>
+          <t>enfore closely closely coupled applications into the same SAP Subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2246,12 +2190,21 @@
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2289,19 +2242,19 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Web dispatcher or third party service like NetScaler in conjuction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription).</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2339,19 +2292,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2389,19 +2342,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2439,19 +2392,15 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2489,19 +2438,15 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files is used for SAP deployment , ensure that only one delegate subnet can exist in a Vnet for Azure NetAppFiles</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2539,19 +2484,15 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within SAP application layer, like App subnet, DB subnet and Web subnet etc.</t>
+          <t>Use SAP Solution Manager and Azure Monitor for SAP Solutions to monitor SAP HANA, high-availability SUSE clusters, and SQL systems</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2587,21 +2528,13 @@
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine to access VM monitoring and configuration data.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2639,19 +2572,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Protect your HANA database with Azure Backup service. If you deploy Azure NetApp Files (ANF) for your HANA database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use SAP Solution Manager and Azure Monitor for SAP Solutions to monitor SAP HANA, high-availability SUSE clusters, and SQL systems</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2763,13 +2720,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine to access VM monitoring and configuration data.</t>
+          <t>Use Network Watcher Connection Monitor to monitor SAP database and application server latency metrics, or collect and display network latency measurements with Azure Monitor.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2807,19 +2772,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2857,19 +2822,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Protect your HANA database with Azure Backup service. If you deploy Azure NetApp Files (ANF) for your HANA database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots</t>
+          <t>For each Azure subscription, run an Azure Availability Zone latency test before zonal deployment to choose low-latency zones for SAP on Azure deployment.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2907,19 +2872,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Implement threat protection for SAP with Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2957,19 +2917,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher Connection Monitor to monitor SAP database and application server latency metrics, or collect and display network latency measurements with Azure Monitor.</t>
+          <t>Enforcing configuration of update management through policy ensures all VMs are included in the patch management regimen, provides application teams with the ability to manage patch deployment for their VMs, and provides central IT with visibility and enforcement capabilities across all VMs</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3007,19 +2963,15 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>Enable VM Insights for VM's running SAP Workloads.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3057,19 +3009,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run an Azure Availability Zone latency test before zonal deployment to choose low-latency zones for SAP on Azure deployment.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3107,14 +3054,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Implement threat protection for SAP with Microsoft Sentinel.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3152,7 +3099,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Enforcing configuration of update management through policy ensures all VMs are included in the patch management regimen, provides application teams with the ability to manage patch deployment for their VMs, and provides central IT with visibility and enforcement capabilities across all VMs</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3198,15 +3145,19 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Enable VM Insights for VM's running SAP Workloads.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3244,15 +3195,19 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3290,14 +3245,19 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3335,15 +3295,19 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,23 +3318,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3381,14 +3345,19 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
+          <t>Ensure Accelerated Networking is enable for all VM where it is applicable.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3426,14 +3395,19 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3471,14 +3445,19 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Use SAP Web dispatcher or third party service like NetScaler in conjunction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3516,14 +3495,19 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3561,14 +3545,19 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3606,14 +3595,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3651,14 +3645,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
+          <t>Ensure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR) for HA configuration on the DBMS layer</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3694,16 +3693,12 @@
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
+          <t>If Azure NetApp Files is used for SAP deployment , ensure that only one delegate subnet can exist in a Vnet for Azure NetAppFiles</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3741,15 +3736,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within SAP application layer, like App subnet, DB subnet and Web subnet etc.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3787,15 +3786,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3833,15 +3836,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3877,16 +3884,12 @@
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,23 +3900,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3922,17 +3925,13 @@
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,13 +3952,13 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled by default</t>
+          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure Storage encryption is enabled by default</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>Do not combine ASCS and Database cluster on to single/same VM</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4200,7 +4199,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,23 +4218,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Make sure the Floating IP is enabled on the Load balancer</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4246,7 +4245,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4292,7 +4291,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4338,7 +4337,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4384,7 +4383,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4430,7 +4429,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
+          <t>Delegate an SAP admin custom role with just-in-time access.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4476,7 +4475,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4522,7 +4521,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
+          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4568,7 +4567,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
+          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,7 +4784,11 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Checlists</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAP </t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,17 +4912,17 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Make quota requests for correct VM SKU and Zones</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -4878,13 +4937,21 @@
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
